--- a/static/file_template/Dietplan.xlsx
+++ b/static/file_template/Dietplan.xlsx
@@ -5,40 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kungbosco/Desktop/IS-3240-Web-Application/static/file_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fan-/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7F17B-1CEC-8349-B408-18296516B203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EDC6CA-8FBD-144F-B132-235FF6669669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16620" xr2:uid="{745A07A1-4BA9-AA4C-92B0-6DC428D01D97}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{858EC3D2-0E08-1046-9627-DBABD9174C38}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Date </t>
+    <t>Date</t>
   </si>
   <si>
     <t>Food</t>
@@ -47,17 +31,23 @@
     <t>FoodWeight</t>
   </si>
   <si>
-    <t>29/11/2023</t>
+    <t>Wild rice, raw</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>Biscuit with fruit</t>
+  </si>
+  <si>
+    <t>Beef and vegetables including carrots, broccoli, and/or dark-green leafy; no potatoes, soy-based sauce</t>
+  </si>
+  <si>
+    <t>Beverages, coffee, instant, regular, half the caffeine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,16 +55,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,15 +372,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,12 +901,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320C8B24-0650-764D-BC27-A5D8C7E28DF7}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EC3FA-416C-2C46-B563-AF38EC0DFEFD}">
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -442,17 +920,2096 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>45618</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>